--- a/doc/프링글스-PB-V1.xlsx
+++ b/doc/프링글스-PB-V1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win11\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win11\Desktop\assignment\Pringles\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E06D48-CFD9-4F5B-9F2A-BE96445CE52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4EE26B-AC21-4A0A-953C-66FF38EA58CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="45" windowWidth="31245" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="0" windowWidth="20570" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -426,10 +424,6 @@
     <t>EP08-ST002</t>
   </si>
   <si>
-    <t>회원가입/로그인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">일반사용자는 소셜 로그인으로 계정을 생성할 수 있다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -590,6 +584,10 @@
   </si>
   <si>
     <t>EP13-ST002</t>
+  </si>
+  <si>
+    <t>계정생성/로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1151,26 +1149,26 @@
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="80.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="26.15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1183,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1220,7 +1218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
@@ -1240,7 +1238,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>15</v>
@@ -1255,9 +1253,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1282,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1296,7 +1294,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>15</v>
@@ -1311,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1321,7 +1319,7 @@
         <v>104</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>15</v>
@@ -1336,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1346,7 +1344,7 @@
         <v>105</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>79</v>
@@ -1361,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1369,7 +1367,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>91</v>
@@ -1396,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -1406,7 +1404,7 @@
         <v>108</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>15</v>
@@ -1421,19 +1419,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>15</v>
@@ -1448,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
@@ -1457,10 +1455,10 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>16</v>
@@ -1475,17 +1473,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>16</v>
@@ -1500,17 +1498,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>16</v>
@@ -1525,19 +1523,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>16</v>
@@ -1552,9 +1550,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A15" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>82</v>
@@ -1572,7 +1570,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>15</v>
@@ -1587,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1597,7 +1595,7 @@
         <v>109</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>15</v>
@@ -1612,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1641,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -1666,14 +1664,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>46</v>
@@ -1691,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
@@ -1711,7 +1709,7 @@
         <v>33</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>15</v>
@@ -1726,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1736,7 +1734,7 @@
         <v>111</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>51</v>
@@ -1751,17 +1749,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>16</v>
@@ -1776,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -1796,7 +1794,7 @@
         <v>36</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>15</v>
@@ -1811,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1836,9 +1834,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1848,7 +1846,7 @@
         <v>37</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>79</v>
@@ -1863,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1892,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1917,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="26" t="s">
         <v>12</v>
       </c>
@@ -1931,13 +1929,13 @@
         <v>97</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="F28" s="27" t="s">
         <v>42</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H28" s="26" t="s">
         <v>79</v>
@@ -1952,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -1962,7 +1960,7 @@
         <v>44</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" s="26" t="s">
         <v>79</v>
@@ -1977,19 +1975,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A30" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
       <c r="F30" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H30" s="26" t="s">
         <v>16</v>
@@ -2004,17 +2002,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="26"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H31" s="26" t="s">
         <v>51</v>
@@ -2029,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -2058,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A33" s="31" t="s">
         <v>22</v>
       </c>
@@ -2093,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A34" s="32" t="s">
         <v>12</v>
       </c>
@@ -2105,7 +2103,7 @@
         <v>107</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H34" s="31" t="s">
         <v>15</v>
@@ -2120,17 +2118,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="32"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
       <c r="D35" s="32"/>
       <c r="E35" s="31"/>
       <c r="F35" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>15</v>
@@ -2145,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="31" t="s">
         <v>22</v>
       </c>
@@ -2176,14 +2174,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
       <c r="F37" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>30</v>
@@ -2201,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="34" t="s">
         <v>59</v>
       </c>
@@ -2209,7 +2207,7 @@
         <v>87</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>101</v>
@@ -2218,7 +2216,7 @@
         <v>60</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>61</v>
@@ -2236,14 +2234,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="34"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
       <c r="E39" s="34"/>
       <c r="F39" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G39" s="34" t="s">
         <v>63</v>
@@ -2261,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="34"/>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
@@ -2272,7 +2270,7 @@
         <v>64</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G40" s="34" t="s">
         <v>66</v>
@@ -2290,14 +2288,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="34"/>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
       <c r="E41" s="34"/>
       <c r="F41" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G41" s="34" t="s">
         <v>67</v>
@@ -2315,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="39" t="s">
         <v>68</v>
       </c>
@@ -2332,10 +2330,10 @@
         <v>71</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H42" s="39" t="s">
         <v>16</v>
@@ -2350,12 +2348,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>73</v>
@@ -2379,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
